--- a/data/residential_model/_EXCELFILES/SANSOM_residential_gas_hourly_shape.xlsx
+++ b/data/residential_model/_EXCELFILES/SANSOM_residential_gas_hourly_shape.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Day</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>in %</t>
+  </si>
+  <si>
+    <t>PEAK</t>
+  </si>
+  <si>
+    <t>PEAK READ FROM CHART</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>percent</t>
   </si>
 </sst>
 </file>
@@ -100,14 +112,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -117,7 +129,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11677650" y="4429125"/>
+          <a:off x="11620500" y="5191125"/>
           <a:ext cx="3962400" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -187,6 +199,61 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>179205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4219575" y="5248275"/>
+          <a:ext cx="11668125" cy="7122930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -479,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +857,83 @@
       </c>
       <c r="Y4">
         <v>1.9285886137947834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.54884742041712398</v>
+      </c>
+      <c r="C5">
+        <v>0.54884742041712398</v>
+      </c>
+      <c r="D5">
+        <v>0.54884742041712398</v>
+      </c>
+      <c r="E5">
+        <v>0.54884742041712398</v>
+      </c>
+      <c r="F5">
+        <v>0.65861690450054877</v>
+      </c>
+      <c r="G5">
+        <v>2.1953896816684959</v>
+      </c>
+      <c r="H5">
+        <v>4.6103183315038416</v>
+      </c>
+      <c r="I5">
+        <v>6.5861690450054873</v>
+      </c>
+      <c r="J5">
+        <v>9.6597145993413829</v>
+      </c>
+      <c r="K5">
+        <v>3.2930845225027436</v>
+      </c>
+      <c r="L5">
+        <v>5.0493962678375404</v>
+      </c>
+      <c r="M5">
+        <v>5.48847420417124</v>
+      </c>
+      <c r="N5">
+        <v>4.171240395170142</v>
+      </c>
+      <c r="O5">
+        <v>4.3907793633369918</v>
+      </c>
+      <c r="P5">
+        <v>4.6103183315038416</v>
+      </c>
+      <c r="Q5">
+        <v>5.1591657519209653</v>
+      </c>
+      <c r="R5">
+        <v>4.7200878155872656</v>
+      </c>
+      <c r="S5">
+        <v>7.2447859495060358</v>
+      </c>
+      <c r="T5">
+        <v>7.4643249176728856</v>
+      </c>
+      <c r="U5">
+        <v>7.1350164654226118</v>
+      </c>
+      <c r="V5">
+        <v>6.4763995609220633</v>
+      </c>
+      <c r="W5">
+        <v>5.48847420417124</v>
+      </c>
+      <c r="X5">
+        <v>2.1953896816684959</v>
+      </c>
+      <c r="Y5">
+        <v>1.2074643249176729</v>
       </c>
     </row>
   </sheetData>
@@ -799,10 +943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW18"/>
+  <dimension ref="A1:AW24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:Y18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +2137,7 @@
         <v>0.77780676961992012</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:Z17" si="26">(100/$Z10)*C10</f>
+        <f t="shared" ref="C17:Y17" si="26">(100/$Z10)*C10</f>
         <v>0.56979892645607844</v>
       </c>
       <c r="D17">
@@ -2098,7 +2242,7 @@
         <v>0.90445503450092357</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:Z18" si="27">(100/$Z11)*C11</f>
+        <f t="shared" ref="C18:Y18" si="27">(100/$Z11)*C11</f>
         <v>0.70351423989588246</v>
       </c>
       <c r="D18">
@@ -2191,6 +2335,271 @@
       </c>
       <c r="Z18">
         <f>SUM(B18:Y18)</f>
+        <v>99.999999999999972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>12</v>
+      </c>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>14</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>16</v>
+      </c>
+      <c r="S22">
+        <v>17</v>
+      </c>
+      <c r="T22">
+        <v>18</v>
+      </c>
+      <c r="U22">
+        <v>19</v>
+      </c>
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22">
+        <v>21</v>
+      </c>
+      <c r="X22">
+        <v>22</v>
+      </c>
+      <c r="Y22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.6</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>4.2</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>3.8</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>4.2</v>
+      </c>
+      <c r="Q23">
+        <v>4.7</v>
+      </c>
+      <c r="R23">
+        <v>4.3</v>
+      </c>
+      <c r="S23">
+        <v>6.6</v>
+      </c>
+      <c r="T23">
+        <v>6.8</v>
+      </c>
+      <c r="U23">
+        <v>6.5</v>
+      </c>
+      <c r="V23">
+        <v>5.9</v>
+      </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z23">
+        <f>SUM(B23:Y23)</f>
+        <v>91.100000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <f>100/$Z$23*B23</f>
+        <v>0.54884742041712398</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:Y24" si="28">100/$Z$23*C23</f>
+        <v>0.54884742041712398</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="28"/>
+        <v>0.54884742041712398</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="28"/>
+        <v>0.54884742041712398</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="28"/>
+        <v>0.65861690450054877</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="28"/>
+        <v>2.1953896816684959</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="28"/>
+        <v>4.6103183315038416</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="28"/>
+        <v>6.5861690450054873</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="28"/>
+        <v>9.6597145993413829</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="28"/>
+        <v>3.2930845225027436</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="28"/>
+        <v>5.0493962678375404</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="28"/>
+        <v>5.48847420417124</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="28"/>
+        <v>4.171240395170142</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="28"/>
+        <v>4.3907793633369918</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="28"/>
+        <v>4.6103183315038416</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="28"/>
+        <v>5.1591657519209653</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="28"/>
+        <v>4.7200878155872656</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="28"/>
+        <v>7.2447859495060358</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="28"/>
+        <v>7.4643249176728856</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="28"/>
+        <v>7.1350164654226118</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="28"/>
+        <v>6.4763995609220633</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="28"/>
+        <v>5.48847420417124</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="28"/>
+        <v>2.1953896816684959</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="28"/>
+        <v>1.2074643249176729</v>
+      </c>
+      <c r="Z24">
+        <f>SUM(B24:Y24)</f>
         <v>99.999999999999972</v>
       </c>
     </row>

--- a/data/residential_model/_EXCELFILES/SANSOM_residential_gas_hourly_shape.xlsx
+++ b/data/residential_model/_EXCELFILES/SANSOM_residential_gas_hourly_shape.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -30,22 +30,10 @@
     <t>hourly</t>
   </si>
   <si>
-    <t>DAY</t>
-  </si>
-  <si>
-    <t>WKDAY</t>
-  </si>
-  <si>
-    <t>WKEND</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
     <t>in %</t>
-  </si>
-  <si>
-    <t>PEAK</t>
   </si>
   <si>
     <t>PEAK READ FROM CHART</t>
@@ -55,6 +43,9 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>READ From chart</t>
   </si>
 </sst>
 </file>
@@ -107,7 +98,515 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>original!$B$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>original!$B$10:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>original!$B$18:$Y$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.41580041580041577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41580041580041577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41580041580041577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41580041580041577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41580041580041577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2474012474012472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0790020790020787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1975051975051967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3555093555093549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1975051975051967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.118503118503118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3264033264033261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1580041580041573</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3264033264033261</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3264033264033261</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.365904365904365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3160083160083147</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.979209979209978</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7713097713097703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6923076923076916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4449064449064437</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0291060291060283</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9501039501039492</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0395010395010393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>original!$B$24:$Y$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.56561085972850678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56561085972850678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56561085972850678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56561085972850678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0361990950226243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3755656108597285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.751131221719457</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7873303167420813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4298642533936645</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3936651583710407</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2036199095022617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6561085972850673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2986425339366514</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5248868778280542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.751131221719457</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3167420814479636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.864253393665158</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4660633484162888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6923076923076916</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3529411764705879</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6742081447963804</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6561085972850673</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2624434389140271</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.244343891402715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="95673344"/>
+        <c:axId val="95694208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95673344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95694208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95694208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95673344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="3105150"/>
+          <a:ext cx="8048625" cy="4391025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Load shapes for boilers</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -254,6 +753,36 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>394611</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -546,1002 +1075,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.43668122270742366</v>
       </c>
       <c r="B2">
-        <v>0.81358590613682213</v>
+        <v>0.43668122270742366</v>
       </c>
       <c r="C2">
-        <v>0.60757456008562927</v>
+        <v>0.43668122270742366</v>
       </c>
       <c r="D2">
-        <v>0.59053122658430846</v>
+        <v>0.43668122270742366</v>
       </c>
       <c r="E2">
-        <v>0.62022341796730429</v>
+        <v>0.43668122270742366</v>
       </c>
       <c r="F2">
-        <v>1.1291190208051374</v>
+        <v>2.1834061135371181</v>
       </c>
       <c r="G2">
-        <v>2.6414666349713301</v>
+        <v>5.0218340611353716</v>
       </c>
       <c r="H2">
-        <v>5.010677832729491</v>
+        <v>8.5152838427947604</v>
       </c>
       <c r="I2">
-        <v>7.4314167174660479</v>
+        <v>6.1135371179039302</v>
       </c>
       <c r="J2">
-        <v>6.4024499525309579</v>
+        <v>3.2751091703056772</v>
       </c>
       <c r="K2">
-        <v>4.857468926430295</v>
+        <v>2.6200873362445418</v>
       </c>
       <c r="L2">
-        <v>4.1321792375561204</v>
+        <v>3.2751091703056772</v>
       </c>
       <c r="M2">
-        <v>3.629042525240227</v>
+        <v>2.8384279475982535</v>
       </c>
       <c r="N2">
-        <v>3.7638607305974245</v>
+        <v>2.8384279475982535</v>
       </c>
       <c r="O2">
-        <v>3.6784016940876549</v>
+        <v>2.8384279475982535</v>
       </c>
       <c r="P2">
-        <v>4.1385347172361984</v>
+        <v>4.3668122270742362</v>
       </c>
       <c r="Q2">
-        <v>5.3675231685777893</v>
+        <v>6.5502183406113543</v>
       </c>
       <c r="R2">
-        <v>6.4928006825424749</v>
+        <v>10.480349344978167</v>
       </c>
       <c r="S2">
-        <v>7.3313736392433935</v>
+        <v>10.262008733624455</v>
       </c>
       <c r="T2">
-        <v>7.6324199724783712</v>
+        <v>8.2969432314410483</v>
       </c>
       <c r="U2">
-        <v>7.334325858322857</v>
+        <v>6.7685589519650664</v>
       </c>
       <c r="V2">
-        <v>6.2724915935285894</v>
+        <v>6.3318777292576423</v>
       </c>
       <c r="W2">
-        <v>4.9336928139968883</v>
+        <v>4.1484716157205241</v>
       </c>
       <c r="X2">
-        <v>3.3844670411536466</v>
-      </c>
-      <c r="Y2">
-        <v>1.8043721297310285</v>
+        <v>1.0917030567685591</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.43103448275862077</v>
       </c>
       <c r="B3">
-        <v>0.77780676961992012</v>
+        <v>0.43103448275862077</v>
       </c>
       <c r="C3">
-        <v>0.56979892645607844</v>
+        <v>0.43103448275862077</v>
       </c>
       <c r="D3">
-        <v>0.53534025260060603</v>
+        <v>0.43103448275862077</v>
       </c>
       <c r="E3">
-        <v>0.57932489157479294</v>
+        <v>0.43103448275862077</v>
       </c>
       <c r="F3">
-        <v>1.1884319843258555</v>
+        <v>2.3706896551724141</v>
       </c>
       <c r="G3">
-        <v>2.8291625530811104</v>
+        <v>6.4655172413793114</v>
       </c>
       <c r="H3">
-        <v>5.4604528568169339</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="I3">
-        <v>7.7787241671221352</v>
+        <v>5.6034482758620694</v>
       </c>
       <c r="J3">
-        <v>6.0962875622293238</v>
+        <v>2.5862068965517242</v>
       </c>
       <c r="K3">
-        <v>4.3554929489019489</v>
+        <v>2.3706896551724141</v>
       </c>
       <c r="L3">
-        <v>3.9558882807201949</v>
+        <v>2.8017241379310347</v>
       </c>
       <c r="M3">
-        <v>3.4904879060779113</v>
+        <v>2.3706896551724141</v>
       </c>
       <c r="N3">
-        <v>3.7398961288239585</v>
+        <v>2.5862068965517242</v>
       </c>
       <c r="O3">
-        <v>3.701269666923384</v>
+        <v>2.5862068965517242</v>
       </c>
       <c r="P3">
-        <v>4.131240715678083</v>
+        <v>4.3103448275862073</v>
       </c>
       <c r="Q3">
-        <v>5.3977374391882771</v>
+        <v>6.4655172413793114</v>
       </c>
       <c r="R3">
-        <v>6.4951748402801899</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="S3">
-        <v>7.295132393251329</v>
+        <v>10.129310344827587</v>
       </c>
       <c r="T3">
-        <v>7.7176827575913114</v>
+        <v>8.4051724137931032</v>
       </c>
       <c r="U3">
-        <v>7.438597513002466</v>
+        <v>6.6810344827586219</v>
       </c>
       <c r="V3">
-        <v>6.3145157219276218</v>
+        <v>6.25</v>
       </c>
       <c r="W3">
-        <v>4.996940982844122</v>
+        <v>4.0948275862068968</v>
       </c>
       <c r="X3">
-        <v>3.3991500551864471</v>
-      </c>
-      <c r="Y3">
-        <v>1.7554626857759961</v>
+        <v>1.0775862068965518</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.41580041580041577</v>
       </c>
       <c r="B4">
-        <v>0.90445503450092357</v>
+        <v>0.41580041580041577</v>
       </c>
       <c r="C4">
-        <v>0.70351423989588246</v>
+        <v>0.41580041580041577</v>
       </c>
       <c r="D4">
-        <v>0.73070106263095713</v>
+        <v>0.41580041580041577</v>
       </c>
       <c r="E4">
-        <v>0.72409438318492647</v>
+        <v>0.41580041580041577</v>
       </c>
       <c r="F4">
-        <v>0.97848046938919464</v>
+        <v>1.2474012474012472</v>
       </c>
       <c r="G4">
-        <v>2.1647708246049095</v>
+        <v>2.0790020790020787</v>
       </c>
       <c r="H4">
-        <v>3.868373451530652</v>
+        <v>5.1975051975051967</v>
       </c>
       <c r="I4">
-        <v>6.5493516846864326</v>
+        <v>9.3555093555093549</v>
       </c>
       <c r="J4">
-        <v>7.1800178944357835</v>
+        <v>5.1975051975051967</v>
       </c>
       <c r="K4">
-        <v>6.1323493170224621</v>
+        <v>3.118503118503118</v>
       </c>
       <c r="L4">
-        <v>4.5799095951232038</v>
+        <v>3.3264033264033261</v>
       </c>
       <c r="M4">
-        <v>3.9809330038757857</v>
+        <v>4.1580041580041573</v>
       </c>
       <c r="N4">
-        <v>3.8247242026300419</v>
+        <v>3.3264033264033261</v>
       </c>
       <c r="O4">
-        <v>3.6203233567847124</v>
+        <v>3.3264033264033261</v>
       </c>
       <c r="P4">
-        <v>4.1570594673670271</v>
+        <v>4.365904365904365</v>
       </c>
       <c r="Q4">
-        <v>5.290787263192394</v>
+        <v>8.3160083160083147</v>
       </c>
       <c r="R4">
-        <v>6.4867709773783195</v>
+        <v>9.979209979209978</v>
       </c>
       <c r="S4">
-        <v>7.423416398088964</v>
+        <v>9.7713097713097703</v>
       </c>
       <c r="T4">
-        <v>7.4158760387965552</v>
+        <v>7.6923076923076916</v>
       </c>
       <c r="U4">
-        <v>7.069504644167993</v>
+        <v>6.4449064449064437</v>
       </c>
       <c r="V4">
-        <v>6.1657619099858616</v>
+        <v>6.0291060291060283</v>
       </c>
       <c r="W4">
-        <v>4.7730599275364067</v>
+        <v>3.9501039501039492</v>
       </c>
       <c r="X4">
-        <v>3.3471762393958091</v>
-      </c>
-      <c r="Y4">
-        <v>1.9285886137947834</v>
+        <v>1.0395010395010393</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.56561085972850678</v>
       </c>
       <c r="B5">
-        <v>0.54884742041712398</v>
+        <v>0.56561085972850678</v>
       </c>
       <c r="C5">
-        <v>0.54884742041712398</v>
+        <v>0.56561085972850678</v>
       </c>
       <c r="D5">
-        <v>0.54884742041712398</v>
+        <v>0.56561085972850678</v>
       </c>
       <c r="E5">
-        <v>0.54884742041712398</v>
+        <v>2.0361990950226243</v>
       </c>
       <c r="F5">
-        <v>0.65861690450054877</v>
+        <v>2.3755656108597285</v>
       </c>
       <c r="G5">
-        <v>2.1953896816684959</v>
+        <v>4.751131221719457</v>
       </c>
       <c r="H5">
-        <v>4.6103183315038416</v>
+        <v>6.7873303167420813</v>
       </c>
       <c r="I5">
-        <v>6.5861690450054873</v>
+        <v>5.4298642533936645</v>
       </c>
       <c r="J5">
-        <v>9.6597145993413829</v>
+        <v>3.3936651583710407</v>
       </c>
       <c r="K5">
-        <v>3.2930845225027436</v>
+        <v>5.2036199095022617</v>
       </c>
       <c r="L5">
-        <v>5.0493962678375404</v>
+        <v>5.6561085972850673</v>
       </c>
       <c r="M5">
-        <v>5.48847420417124</v>
+        <v>4.2986425339366514</v>
       </c>
       <c r="N5">
-        <v>4.171240395170142</v>
+        <v>4.5248868778280542</v>
       </c>
       <c r="O5">
-        <v>4.3907793633369918</v>
+        <v>4.751131221719457</v>
       </c>
       <c r="P5">
-        <v>4.6103183315038416</v>
+        <v>5.3167420814479636</v>
       </c>
       <c r="Q5">
-        <v>5.1591657519209653</v>
+        <v>4.864253393665158</v>
       </c>
       <c r="R5">
-        <v>4.7200878155872656</v>
+        <v>7.4660633484162888</v>
       </c>
       <c r="S5">
-        <v>7.2447859495060358</v>
+        <v>7.6923076923076916</v>
       </c>
       <c r="T5">
-        <v>7.4643249176728856</v>
+        <v>7.3529411764705879</v>
       </c>
       <c r="U5">
-        <v>7.1350164654226118</v>
+        <v>6.6742081447963804</v>
       </c>
       <c r="V5">
-        <v>6.4763995609220633</v>
+        <v>5.6561085972850673</v>
       </c>
       <c r="W5">
-        <v>5.48847420417124</v>
+        <v>2.2624434389140271</v>
       </c>
       <c r="X5">
-        <v>2.1953896816684959</v>
-      </c>
-      <c r="Y5">
-        <v>1.2074643249176729</v>
+        <v>1.244343891402715</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW24"/>
+  <dimension ref="A2:AW24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>5</v>
-      </c>
-      <c r="K1">
-        <v>5</v>
-      </c>
-      <c r="L1">
-        <v>6</v>
-      </c>
-      <c r="M1">
-        <v>6</v>
-      </c>
-      <c r="N1">
-        <v>7</v>
-      </c>
-      <c r="O1">
-        <v>7</v>
-      </c>
-      <c r="P1">
-        <v>8</v>
-      </c>
-      <c r="Q1">
-        <v>8</v>
-      </c>
-      <c r="R1">
-        <v>9</v>
-      </c>
-      <c r="S1">
-        <v>9</v>
-      </c>
-      <c r="T1">
-        <v>10</v>
-      </c>
-      <c r="U1">
-        <v>10</v>
-      </c>
-      <c r="V1">
-        <v>11</v>
-      </c>
-      <c r="W1">
-        <v>11</v>
-      </c>
-      <c r="X1">
-        <v>12</v>
-      </c>
-      <c r="Y1">
-        <v>12</v>
-      </c>
-      <c r="Z1">
-        <v>13</v>
-      </c>
-      <c r="AA1">
-        <v>13</v>
-      </c>
-      <c r="AB1">
-        <v>14</v>
-      </c>
-      <c r="AC1">
-        <v>14</v>
-      </c>
-      <c r="AD1">
-        <v>15</v>
-      </c>
-      <c r="AE1">
-        <v>15</v>
-      </c>
-      <c r="AF1">
-        <v>16</v>
-      </c>
-      <c r="AG1">
-        <v>16</v>
-      </c>
-      <c r="AH1">
-        <v>17</v>
-      </c>
-      <c r="AI1">
-        <v>17</v>
-      </c>
-      <c r="AJ1">
-        <v>18</v>
-      </c>
-      <c r="AK1">
-        <v>18</v>
-      </c>
-      <c r="AL1">
-        <v>19</v>
-      </c>
-      <c r="AM1">
-        <v>19</v>
-      </c>
-      <c r="AN1">
-        <v>20</v>
-      </c>
-      <c r="AO1">
-        <v>20</v>
-      </c>
-      <c r="AP1">
-        <v>21</v>
-      </c>
-      <c r="AQ1">
-        <v>21</v>
-      </c>
-      <c r="AR1">
-        <v>22</v>
-      </c>
-      <c r="AS1">
-        <v>22</v>
-      </c>
-      <c r="AT1">
-        <v>23</v>
-      </c>
-      <c r="AU1">
-        <v>23</v>
-      </c>
-      <c r="AV1">
-        <v>24</v>
-      </c>
-      <c r="AW1">
-        <v>24</v>
-      </c>
-    </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.36676463012363952</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.28156566617347401</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.25440672384228435</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.22975726129029503</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.23712228378719913</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.23346021059504315</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.23817463990098686</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.25606896646936178</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.32843569796317656</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.57133661101066235</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.90912941580345719</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.1958023845046724</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1.6656201417044485</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2.3272885596866639</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2.9279088835852201</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>2.9940380995177946</v>
-      </c>
-      <c r="R2" s="1">
-        <v>2.7147275484983457</v>
-      </c>
-      <c r="S2" s="1">
-        <v>2.3872564502925235</v>
-      </c>
-      <c r="T2" s="1">
-        <v>2.0246118788874661</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1.8462077168946687</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1.6972481928217085</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1.5956025918709729</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1.4641710274322199</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1.4277401990488154</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1.4708231525661548</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1.5285219986746068</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1.4715379620651727</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1.4597065964247511</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1.6085614415665139</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1.6893538974565889</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1.991483207927975</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>2.2857883868929343</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>2.5047730385590401</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>2.6692096454563208</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>2.8539535151927931</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>2.9882711447267356</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>3.0133189400195244</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>3.0688035069107951</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>3.0102793862350898</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>2.8342978378772123</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>2.5956240284660081</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>2.4027987596859415</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>2.1264780700568879</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>1.8050828134469348</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>1.4977695954049166</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>1.1992443315176915</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>0.84790870943040908</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>0.58995926329973736</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.35200970672032517</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.27059123365510185</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.24105470739867474</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.21504488094743524</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.21571680619353728</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.21280009248661513</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.219152716403829</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.24457199822370096</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.34795258539660845</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.60333621783028812</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.95612158457574703</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.3085016288272178</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1.8233526300818266</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2.547505552588897</v>
-      </c>
-      <c r="P3" s="1">
-        <v>3.1330905490588559</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>3.0934443314975084</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2.6798212425771477</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2.1999953356428086</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1.8079831452318289</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1.6784020492683422</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1.6135707295811792</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1.5529480766257331</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1.4100835737072732</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1.3839022047336889</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1.4673268427409818</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>1.5262995149339877</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>1.4870851212767617</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1.4756224112580962</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1.6142939092200645</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>1.6925869961175242</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>2.0041473978331279</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>2.3165097843876765</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>2.5215262406044197</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>2.6775824858950124</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>2.8426399108138258</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>2.9968005075576549</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>3.0405073727562204</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>3.1371664789943616</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>3.0682034575466095</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>2.8860746325409186</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>2.6269721337522847</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>2.4275267212893969</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>2.1633383640253152</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>1.836498454622481</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>1.5199117623807039</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>1.2009619860830898</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>0.83454813904219871</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>0.57062440720882668</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.40365193863192556</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.30900174746940456</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.28778676495130834</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.26653821214744455</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.29063597777135375</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.2851105058661132</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.28572944864388145</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.28481138708351367</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.27964347937959677</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.49133759396159793</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.7916489938727328</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.91405427369830905</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.271288920761003</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1.7767460774310817</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2.4149547199011296</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2.7455225195685093</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2.8019933133013413</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2.8554092369168114</v>
-      </c>
-      <c r="T4" s="1">
-        <v>2.5661837130265592</v>
-      </c>
-      <c r="U4" s="1">
-        <v>2.2657218859604851</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1.9064418509230312</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1.7022388799840718</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1.5993896617445864</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1.5373351848366317</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>1.4795639271290866</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>1.5340782080261544</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1.4326700640361998</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>1.4199170593413879</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>1.5942302724326372</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>1.681271150804251</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>1.9598227331650928</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>2.2089848931560785</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>2.4628900334455901</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>2.6482775443595923</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>2.8822375261402104</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>2.9669477376494373</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>2.9453478581777834</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>2.8978960767018771</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>2.8654692079562909</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>2.7048558512179457</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>2.5172537652503171</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>2.3409788556773021</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>2.0343273351358206</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>1.726543710508069</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>1.4424141779654485</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>1.1949501951041956</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0.88131013540093484</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>0.63829640352701411</v>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -1623,7 +1703,7 @@
         <v>23</v>
       </c>
       <c r="Z8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -1631,104 +1711,80 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <f>(B2+C2)/2</f>
-        <v>0.32416514814855679</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <f>(D2+E2)/2</f>
-        <v>0.24208199256628971</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <f>(F2+G2)/2</f>
-        <v>0.23529124719112116</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <f>(H2+I2)/2</f>
-        <v>0.24712180318517432</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
-        <f>(K2+J2)/2</f>
-        <v>0.44988615448691949</v>
+        <v>0.2</v>
       </c>
       <c r="G9">
-        <f>(M2+L2)/2</f>
-        <v>1.0524659001540648</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <f>(O2+N2)/2</f>
-        <v>1.9964543506955561</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I9">
-        <f>(Q2+P2)/2</f>
-        <v>2.9609734915515071</v>
+        <v>3.9</v>
       </c>
       <c r="J9">
-        <f>(S2+R2)/2</f>
-        <v>2.5509919993954346</v>
+        <v>2.8</v>
       </c>
       <c r="K9">
-        <f>(U2+T2)/2</f>
-        <v>1.9354097978910674</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <f>(W2+V2)/2</f>
-        <v>1.6464253923463406</v>
+        <v>1.2</v>
       </c>
       <c r="M9">
-        <f>(Y2+X2)/2</f>
-        <v>1.4459556132405176</v>
+        <v>1.5</v>
       </c>
       <c r="N9">
-        <f>(AA2+Z2)/2</f>
-        <v>1.4996725756203808</v>
+        <v>1.3</v>
       </c>
       <c r="O9">
-        <f>(AC2+AB2)/2</f>
-        <v>1.465622279244962</v>
+        <v>1.3</v>
       </c>
       <c r="P9">
-        <f>(AE2+AD2)/2</f>
-        <v>1.6489576695115513</v>
+        <v>1.3</v>
       </c>
       <c r="Q9">
-        <f>(AG2+AF2)/2</f>
-        <v>2.1386357974104548</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <f>(AI2+AH2)/2</f>
-        <v>2.5869913420076802</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <f>(AK2+AJ2)/2</f>
-        <v>2.9211123299597643</v>
+        <v>4.8</v>
       </c>
       <c r="T9">
-        <f>(AM2+AL2)/2</f>
-        <v>3.0410612234651597</v>
+        <v>4.7</v>
       </c>
       <c r="U9">
-        <f>(AO2+AN2)/2</f>
-        <v>2.9222886120561511</v>
+        <v>3.8</v>
       </c>
       <c r="V9">
-        <f>(AQ2+AP2)/2</f>
-        <v>2.4992113940759748</v>
+        <v>3.1</v>
       </c>
       <c r="W9">
-        <f>(AS2+AR2)/2</f>
-        <v>1.9657804417519114</v>
+        <v>2.9</v>
       </c>
       <c r="X9">
-        <f>(AU2+AT2)/2</f>
-        <v>1.3485069634613041</v>
+        <v>1.9</v>
       </c>
       <c r="Y9">
-        <f>(AW2+AV2)/2</f>
-        <v>0.71893398636507322</v>
+        <v>0.5</v>
       </c>
       <c r="Z9">
         <f>SUM(B9:Y9)</f>
-        <v>39.843997505782923</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -1736,104 +1792,80 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B11" si="0">(B3+C3)/2</f>
-        <v>0.31130047018771351</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C11" si="1">(D3+E3)/2</f>
-        <v>0.22804979417305499</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D11" si="2">(F3+G3)/2</f>
-        <v>0.21425844934007621</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E11" si="3">(H3+I3)/2</f>
-        <v>0.23186235731376498</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F11" si="4">(K3+J3)/2</f>
-        <v>0.47564440161344829</v>
+        <v>0.2</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10" si="5">(M3+L3)/2</f>
-        <v>1.1323116067014825</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H11" si="6">(O3+N3)/2</f>
-        <v>2.1854290913353616</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I11" si="7">(Q3+P3)/2</f>
-        <v>3.1132674402781824</v>
+        <v>4.8</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:J11" si="8">(S3+R3)/2</f>
-        <v>2.4399082891099781</v>
+        <v>2.6</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K11" si="9">(U3+T3)/2</f>
-        <v>1.7431925972500855</v>
+        <v>1.2</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L11" si="10">(W3+V3)/2</f>
-        <v>1.5832594031034561</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M11" si="11">(Y3+X3)/2</f>
-        <v>1.396992889220481</v>
+        <v>1.3</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N11" si="12">(AA3+Z3)/2</f>
-        <v>1.4968131788374848</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:O11" si="13">(AC3+AB3)/2</f>
-        <v>1.481353766267429</v>
+        <v>1.2</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10:P11" si="14">(AE3+AD3)/2</f>
-        <v>1.6534404526687942</v>
+        <v>1.2</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q11" si="15">(AG3+AF3)/2</f>
-        <v>2.1603285911104022</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <f t="shared" ref="R10:R11" si="16">(AI3+AH3)/2</f>
-        <v>2.599554363249716</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <f t="shared" ref="S10:S11" si="17">(AK3+AJ3)/2</f>
-        <v>2.9197202091857406</v>
+        <v>4.8</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10:T11" si="18">(AM3+AL3)/2</f>
-        <v>3.0888369258752908</v>
+        <v>4.7</v>
       </c>
       <c r="U10">
-        <f t="shared" ref="U10:U11" si="19">(AO3+AN3)/2</f>
-        <v>2.977139045043764</v>
+        <v>3.9</v>
       </c>
       <c r="V10">
-        <f t="shared" ref="V10:V11" si="20">(AQ3+AP3)/2</f>
-        <v>2.5272494275208408</v>
+        <v>3.1</v>
       </c>
       <c r="W10">
-        <f t="shared" ref="W10:W11" si="21">(AS3+AR3)/2</f>
-        <v>1.999918409323898</v>
+        <v>2.9</v>
       </c>
       <c r="X10">
-        <f t="shared" ref="X10:X11" si="22">(AU3+AT3)/2</f>
-        <v>1.3604368742318969</v>
+        <v>1.9</v>
       </c>
       <c r="Y10">
-        <f t="shared" ref="Y10:Y11" si="23">(AW3+AV3)/2</f>
-        <v>0.70258627312551269</v>
+        <v>0.5</v>
       </c>
       <c r="Z10">
-        <f t="shared" ref="Z10:Z11" si="24">SUM(B10:Y10)</f>
-        <v>40.022854306067856</v>
+        <f t="shared" ref="Z10:Z11" si="0">SUM(B10:Y10)</f>
+        <v>46.4</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
@@ -1841,109 +1873,85 @@
         <v>2</v>
       </c>
       <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>0.6</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2.5</v>
+      </c>
+      <c r="J11">
+        <v>4.5</v>
+      </c>
+      <c r="K11">
+        <v>2.5</v>
+      </c>
+      <c r="L11">
+        <v>1.5</v>
+      </c>
+      <c r="M11">
+        <v>1.6</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>1.6</v>
+      </c>
+      <c r="P11">
+        <v>1.6</v>
+      </c>
+      <c r="Q11">
+        <v>2.1</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>4.8</v>
+      </c>
+      <c r="T11">
+        <v>4.7</v>
+      </c>
+      <c r="U11">
+        <v>3.7</v>
+      </c>
+      <c r="V11">
+        <v>3.1</v>
+      </c>
+      <c r="W11">
+        <v>2.9</v>
+      </c>
+      <c r="X11">
+        <v>1.9</v>
+      </c>
+      <c r="Y11">
+        <v>0.5</v>
+      </c>
+      <c r="Z11">
         <f t="shared" si="0"/>
-        <v>0.35632684305066509</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>0.27716248854937642</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0.28787324181873347</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>0.28527041786369756</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
-        <v>0.38549053667059735</v>
-      </c>
-      <c r="G11">
-        <f>(M4+L4)/2</f>
-        <v>0.85285163378552098</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
-        <v>1.5240174990960424</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="7"/>
-        <v>2.5802386197348195</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="8"/>
-        <v>2.8287012751090765</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="9"/>
-        <v>2.4159527994935219</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="10"/>
-        <v>1.8043403654535515</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="11"/>
-        <v>1.568362423290609</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="12"/>
-        <v>1.5068210675776204</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="13"/>
-        <v>1.426293561688794</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="14"/>
-        <v>1.6377507116184442</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="15"/>
-        <v>2.0844038131605855</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="16"/>
-        <v>2.5555837889025912</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="17"/>
-        <v>2.9245926318948241</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="18"/>
-        <v>2.9216219674398305</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="19"/>
-        <v>2.7851625295871183</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="20"/>
-        <v>2.4291163104638098</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="21"/>
-        <v>1.8804355228219447</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="22"/>
-        <v>1.3186821865348222</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="23"/>
-        <v>0.75980326946397447</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="24"/>
-        <v>39.396855505070576</v>
+        <v>48.100000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
@@ -2020,7 +2028,7 @@
         <v>23</v>
       </c>
       <c r="Z15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
@@ -2029,103 +2037,103 @@
       </c>
       <c r="B16">
         <f>(100/$Z9)*B9</f>
-        <v>0.81358590613682213</v>
+        <v>0.43668122270742366</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:Y16" si="25">(100/$Z9)*C9</f>
-        <v>0.60757456008562927</v>
+        <f t="shared" ref="C16:Y16" si="1">(100/$Z9)*C9</f>
+        <v>0.43668122270742366</v>
       </c>
       <c r="D16">
-        <f t="shared" si="25"/>
-        <v>0.59053122658430846</v>
+        <f t="shared" si="1"/>
+        <v>0.43668122270742366</v>
       </c>
       <c r="E16">
-        <f t="shared" si="25"/>
-        <v>0.62022341796730429</v>
+        <f t="shared" si="1"/>
+        <v>0.43668122270742366</v>
       </c>
       <c r="F16">
-        <f t="shared" si="25"/>
-        <v>1.1291190208051374</v>
+        <f t="shared" si="1"/>
+        <v>0.43668122270742366</v>
       </c>
       <c r="G16">
-        <f t="shared" si="25"/>
-        <v>2.6414666349713301</v>
+        <f t="shared" si="1"/>
+        <v>2.1834061135371181</v>
       </c>
       <c r="H16">
-        <f t="shared" si="25"/>
-        <v>5.010677832729491</v>
+        <f t="shared" si="1"/>
+        <v>5.0218340611353716</v>
       </c>
       <c r="I16">
-        <f t="shared" si="25"/>
-        <v>7.4314167174660479</v>
+        <f t="shared" si="1"/>
+        <v>8.5152838427947604</v>
       </c>
       <c r="J16">
-        <f t="shared" si="25"/>
-        <v>6.4024499525309579</v>
+        <f t="shared" si="1"/>
+        <v>6.1135371179039302</v>
       </c>
       <c r="K16">
-        <f t="shared" si="25"/>
-        <v>4.857468926430295</v>
+        <f t="shared" si="1"/>
+        <v>3.2751091703056772</v>
       </c>
       <c r="L16">
-        <f t="shared" si="25"/>
-        <v>4.1321792375561204</v>
+        <f t="shared" si="1"/>
+        <v>2.6200873362445418</v>
       </c>
       <c r="M16">
-        <f t="shared" si="25"/>
-        <v>3.629042525240227</v>
+        <f t="shared" si="1"/>
+        <v>3.2751091703056772</v>
       </c>
       <c r="N16">
-        <f t="shared" si="25"/>
-        <v>3.7638607305974245</v>
+        <f t="shared" si="1"/>
+        <v>2.8384279475982535</v>
       </c>
       <c r="O16">
-        <f t="shared" si="25"/>
-        <v>3.6784016940876549</v>
+        <f t="shared" si="1"/>
+        <v>2.8384279475982535</v>
       </c>
       <c r="P16">
-        <f t="shared" si="25"/>
-        <v>4.1385347172361984</v>
+        <f t="shared" si="1"/>
+        <v>2.8384279475982535</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="25"/>
-        <v>5.3675231685777893</v>
+        <f t="shared" si="1"/>
+        <v>4.3668122270742362</v>
       </c>
       <c r="R16">
-        <f t="shared" si="25"/>
-        <v>6.4928006825424749</v>
+        <f t="shared" si="1"/>
+        <v>6.5502183406113543</v>
       </c>
       <c r="S16">
-        <f t="shared" si="25"/>
-        <v>7.3313736392433935</v>
+        <f t="shared" si="1"/>
+        <v>10.480349344978167</v>
       </c>
       <c r="T16">
-        <f t="shared" si="25"/>
-        <v>7.6324199724783712</v>
+        <f t="shared" si="1"/>
+        <v>10.262008733624455</v>
       </c>
       <c r="U16">
-        <f t="shared" si="25"/>
-        <v>7.334325858322857</v>
+        <f t="shared" si="1"/>
+        <v>8.2969432314410483</v>
       </c>
       <c r="V16">
-        <f t="shared" si="25"/>
-        <v>6.2724915935285894</v>
+        <f t="shared" si="1"/>
+        <v>6.7685589519650664</v>
       </c>
       <c r="W16">
-        <f t="shared" si="25"/>
-        <v>4.9336928139968883</v>
+        <f t="shared" si="1"/>
+        <v>6.3318777292576423</v>
       </c>
       <c r="X16">
-        <f t="shared" si="25"/>
-        <v>3.3844670411536466</v>
+        <f t="shared" si="1"/>
+        <v>4.1484716157205241</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="25"/>
-        <v>1.8043721297310285</v>
+        <f t="shared" si="1"/>
+        <v>1.0917030567685591</v>
       </c>
       <c r="Z16">
         <f>SUM(B16:Y16)</f>
-        <v>99.999999999999972</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2134,103 +2142,103 @@
       </c>
       <c r="B17">
         <f>(100/$Z10)*B10</f>
-        <v>0.77780676961992012</v>
+        <v>0.43103448275862077</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:Y17" si="26">(100/$Z10)*C10</f>
-        <v>0.56979892645607844</v>
+        <f t="shared" ref="C17:Y17" si="2">(100/$Z10)*C10</f>
+        <v>0.43103448275862077</v>
       </c>
       <c r="D17">
-        <f t="shared" si="26"/>
-        <v>0.53534025260060603</v>
+        <f t="shared" si="2"/>
+        <v>0.43103448275862077</v>
       </c>
       <c r="E17">
-        <f t="shared" si="26"/>
-        <v>0.57932489157479294</v>
+        <f t="shared" si="2"/>
+        <v>0.43103448275862077</v>
       </c>
       <c r="F17">
-        <f t="shared" si="26"/>
-        <v>1.1884319843258555</v>
+        <f t="shared" si="2"/>
+        <v>0.43103448275862077</v>
       </c>
       <c r="G17">
-        <f t="shared" si="26"/>
-        <v>2.8291625530811104</v>
+        <f t="shared" si="2"/>
+        <v>2.3706896551724141</v>
       </c>
       <c r="H17">
-        <f t="shared" si="26"/>
-        <v>5.4604528568169339</v>
+        <f t="shared" si="2"/>
+        <v>6.4655172413793114</v>
       </c>
       <c r="I17">
-        <f t="shared" si="26"/>
-        <v>7.7787241671221352</v>
+        <f t="shared" si="2"/>
+        <v>10.344827586206897</v>
       </c>
       <c r="J17">
-        <f t="shared" si="26"/>
-        <v>6.0962875622293238</v>
+        <f t="shared" si="2"/>
+        <v>5.6034482758620694</v>
       </c>
       <c r="K17">
-        <f t="shared" si="26"/>
-        <v>4.3554929489019489</v>
+        <f t="shared" si="2"/>
+        <v>2.5862068965517242</v>
       </c>
       <c r="L17">
-        <f t="shared" si="26"/>
-        <v>3.9558882807201949</v>
+        <f t="shared" si="2"/>
+        <v>2.3706896551724141</v>
       </c>
       <c r="M17">
-        <f t="shared" si="26"/>
-        <v>3.4904879060779113</v>
+        <f t="shared" si="2"/>
+        <v>2.8017241379310347</v>
       </c>
       <c r="N17">
-        <f t="shared" si="26"/>
-        <v>3.7398961288239585</v>
+        <f t="shared" si="2"/>
+        <v>2.3706896551724141</v>
       </c>
       <c r="O17">
-        <f t="shared" si="26"/>
-        <v>3.701269666923384</v>
+        <f t="shared" si="2"/>
+        <v>2.5862068965517242</v>
       </c>
       <c r="P17">
-        <f t="shared" si="26"/>
-        <v>4.131240715678083</v>
+        <f t="shared" si="2"/>
+        <v>2.5862068965517242</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="26"/>
-        <v>5.3977374391882771</v>
+        <f t="shared" si="2"/>
+        <v>4.3103448275862073</v>
       </c>
       <c r="R17">
-        <f t="shared" si="26"/>
-        <v>6.4951748402801899</v>
+        <f t="shared" si="2"/>
+        <v>6.4655172413793114</v>
       </c>
       <c r="S17">
-        <f t="shared" si="26"/>
-        <v>7.295132393251329</v>
+        <f t="shared" si="2"/>
+        <v>10.344827586206897</v>
       </c>
       <c r="T17">
-        <f t="shared" si="26"/>
-        <v>7.7176827575913114</v>
+        <f t="shared" si="2"/>
+        <v>10.129310344827587</v>
       </c>
       <c r="U17">
-        <f t="shared" si="26"/>
-        <v>7.438597513002466</v>
+        <f t="shared" si="2"/>
+        <v>8.4051724137931032</v>
       </c>
       <c r="V17">
-        <f t="shared" si="26"/>
-        <v>6.3145157219276218</v>
+        <f t="shared" si="2"/>
+        <v>6.6810344827586219</v>
       </c>
       <c r="W17">
-        <f t="shared" si="26"/>
-        <v>4.996940982844122</v>
+        <f t="shared" si="2"/>
+        <v>6.25</v>
       </c>
       <c r="X17">
-        <f t="shared" si="26"/>
-        <v>3.3991500551864471</v>
+        <f t="shared" si="2"/>
+        <v>4.0948275862068968</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="26"/>
-        <v>1.7554626857759961</v>
+        <f t="shared" si="2"/>
+        <v>1.0775862068965518</v>
       </c>
       <c r="Z17">
         <f>SUM(B17:Y17)</f>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2239,108 +2247,108 @@
       </c>
       <c r="B18">
         <f>(100/$Z11)*B11</f>
-        <v>0.90445503450092357</v>
+        <v>0.41580041580041577</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:Y18" si="27">(100/$Z11)*C11</f>
-        <v>0.70351423989588246</v>
+        <f t="shared" ref="C18:Y18" si="3">(100/$Z11)*C11</f>
+        <v>0.41580041580041577</v>
       </c>
       <c r="D18">
-        <f t="shared" si="27"/>
-        <v>0.73070106263095713</v>
+        <f t="shared" si="3"/>
+        <v>0.41580041580041577</v>
       </c>
       <c r="E18">
-        <f t="shared" si="27"/>
-        <v>0.72409438318492647</v>
+        <f t="shared" si="3"/>
+        <v>0.41580041580041577</v>
       </c>
       <c r="F18">
-        <f t="shared" si="27"/>
-        <v>0.97848046938919464</v>
+        <f t="shared" si="3"/>
+        <v>0.41580041580041577</v>
       </c>
       <c r="G18">
-        <f t="shared" si="27"/>
-        <v>2.1647708246049095</v>
+        <f t="shared" si="3"/>
+        <v>1.2474012474012472</v>
       </c>
       <c r="H18">
-        <f t="shared" si="27"/>
-        <v>3.868373451530652</v>
+        <f t="shared" si="3"/>
+        <v>2.0790020790020787</v>
       </c>
       <c r="I18">
-        <f t="shared" si="27"/>
-        <v>6.5493516846864326</v>
+        <f t="shared" si="3"/>
+        <v>5.1975051975051967</v>
       </c>
       <c r="J18">
-        <f t="shared" si="27"/>
-        <v>7.1800178944357835</v>
+        <f t="shared" si="3"/>
+        <v>9.3555093555093549</v>
       </c>
       <c r="K18">
-        <f t="shared" si="27"/>
-        <v>6.1323493170224621</v>
+        <f t="shared" si="3"/>
+        <v>5.1975051975051967</v>
       </c>
       <c r="L18">
-        <f t="shared" si="27"/>
-        <v>4.5799095951232038</v>
+        <f t="shared" si="3"/>
+        <v>3.118503118503118</v>
       </c>
       <c r="M18">
-        <f t="shared" si="27"/>
-        <v>3.9809330038757857</v>
+        <f t="shared" si="3"/>
+        <v>3.3264033264033261</v>
       </c>
       <c r="N18">
-        <f t="shared" si="27"/>
-        <v>3.8247242026300419</v>
+        <f t="shared" si="3"/>
+        <v>4.1580041580041573</v>
       </c>
       <c r="O18">
-        <f t="shared" si="27"/>
-        <v>3.6203233567847124</v>
+        <f t="shared" si="3"/>
+        <v>3.3264033264033261</v>
       </c>
       <c r="P18">
-        <f t="shared" si="27"/>
-        <v>4.1570594673670271</v>
+        <f t="shared" si="3"/>
+        <v>3.3264033264033261</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="27"/>
-        <v>5.290787263192394</v>
+        <f t="shared" si="3"/>
+        <v>4.365904365904365</v>
       </c>
       <c r="R18">
-        <f t="shared" si="27"/>
-        <v>6.4867709773783195</v>
+        <f t="shared" si="3"/>
+        <v>8.3160083160083147</v>
       </c>
       <c r="S18">
-        <f t="shared" si="27"/>
-        <v>7.423416398088964</v>
+        <f t="shared" si="3"/>
+        <v>9.979209979209978</v>
       </c>
       <c r="T18">
-        <f t="shared" si="27"/>
-        <v>7.4158760387965552</v>
+        <f t="shared" si="3"/>
+        <v>9.7713097713097703</v>
       </c>
       <c r="U18">
-        <f t="shared" si="27"/>
-        <v>7.069504644167993</v>
+        <f t="shared" si="3"/>
+        <v>7.6923076923076916</v>
       </c>
       <c r="V18">
-        <f t="shared" si="27"/>
-        <v>6.1657619099858616</v>
+        <f t="shared" si="3"/>
+        <v>6.4449064449064437</v>
       </c>
       <c r="W18">
-        <f t="shared" si="27"/>
-        <v>4.7730599275364067</v>
+        <f t="shared" si="3"/>
+        <v>6.0291060291060283</v>
       </c>
       <c r="X18">
-        <f t="shared" si="27"/>
-        <v>3.3471762393958091</v>
+        <f t="shared" si="3"/>
+        <v>3.9501039501039492</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="27"/>
-        <v>1.9285886137947834</v>
+        <f t="shared" si="3"/>
+        <v>1.0395010395010393</v>
       </c>
       <c r="Z18">
         <f>SUM(B18:Y18)</f>
-        <v>99.999999999999972</v>
+        <v>99.999999999999986</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -2419,7 +2427,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>0.5</v>
@@ -2434,10 +2442,10 @@
         <v>0.5</v>
       </c>
       <c r="F23">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H23">
         <v>4.2</v>
@@ -2446,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="J23">
-        <v>8.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2495,112 +2503,112 @@
       </c>
       <c r="Z23">
         <f>SUM(B23:Y23)</f>
-        <v>91.100000000000009</v>
+        <v>88.4</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <f>100/$Z$23*B23</f>
-        <v>0.54884742041712398</v>
+        <v>0.56561085972850678</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:Y24" si="28">100/$Z$23*C23</f>
-        <v>0.54884742041712398</v>
+        <f t="shared" ref="C24:X24" si="4">100/$Z$23*C23</f>
+        <v>0.56561085972850678</v>
       </c>
       <c r="D24">
-        <f t="shared" si="28"/>
-        <v>0.54884742041712398</v>
+        <f t="shared" si="4"/>
+        <v>0.56561085972850678</v>
       </c>
       <c r="E24">
-        <f t="shared" si="28"/>
-        <v>0.54884742041712398</v>
+        <f t="shared" si="4"/>
+        <v>0.56561085972850678</v>
       </c>
       <c r="F24">
-        <f t="shared" si="28"/>
-        <v>0.65861690450054877</v>
+        <f t="shared" si="4"/>
+        <v>2.0361990950226243</v>
       </c>
       <c r="G24">
-        <f t="shared" si="28"/>
-        <v>2.1953896816684959</v>
+        <f t="shared" si="4"/>
+        <v>2.3755656108597285</v>
       </c>
       <c r="H24">
-        <f t="shared" si="28"/>
-        <v>4.6103183315038416</v>
+        <f t="shared" si="4"/>
+        <v>4.751131221719457</v>
       </c>
       <c r="I24">
-        <f t="shared" si="28"/>
-        <v>6.5861690450054873</v>
+        <f t="shared" si="4"/>
+        <v>6.7873303167420813</v>
       </c>
       <c r="J24">
-        <f t="shared" si="28"/>
-        <v>9.6597145993413829</v>
+        <f t="shared" si="4"/>
+        <v>5.4298642533936645</v>
       </c>
       <c r="K24">
-        <f t="shared" si="28"/>
-        <v>3.2930845225027436</v>
+        <f t="shared" si="4"/>
+        <v>3.3936651583710407</v>
       </c>
       <c r="L24">
-        <f t="shared" si="28"/>
-        <v>5.0493962678375404</v>
+        <f t="shared" si="4"/>
+        <v>5.2036199095022617</v>
       </c>
       <c r="M24">
-        <f t="shared" si="28"/>
-        <v>5.48847420417124</v>
+        <f t="shared" si="4"/>
+        <v>5.6561085972850673</v>
       </c>
       <c r="N24">
-        <f t="shared" si="28"/>
-        <v>4.171240395170142</v>
+        <f t="shared" si="4"/>
+        <v>4.2986425339366514</v>
       </c>
       <c r="O24">
-        <f t="shared" si="28"/>
-        <v>4.3907793633369918</v>
+        <f t="shared" si="4"/>
+        <v>4.5248868778280542</v>
       </c>
       <c r="P24">
-        <f t="shared" si="28"/>
-        <v>4.6103183315038416</v>
+        <f t="shared" si="4"/>
+        <v>4.751131221719457</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="28"/>
-        <v>5.1591657519209653</v>
+        <f t="shared" si="4"/>
+        <v>5.3167420814479636</v>
       </c>
       <c r="R24">
-        <f t="shared" si="28"/>
-        <v>4.7200878155872656</v>
+        <f t="shared" si="4"/>
+        <v>4.864253393665158</v>
       </c>
       <c r="S24">
-        <f t="shared" si="28"/>
-        <v>7.2447859495060358</v>
+        <f t="shared" si="4"/>
+        <v>7.4660633484162888</v>
       </c>
       <c r="T24">
-        <f t="shared" si="28"/>
-        <v>7.4643249176728856</v>
+        <f t="shared" si="4"/>
+        <v>7.6923076923076916</v>
       </c>
       <c r="U24">
-        <f t="shared" si="28"/>
-        <v>7.1350164654226118</v>
+        <f t="shared" si="4"/>
+        <v>7.3529411764705879</v>
       </c>
       <c r="V24">
-        <f t="shared" si="28"/>
-        <v>6.4763995609220633</v>
+        <f t="shared" si="4"/>
+        <v>6.6742081447963804</v>
       </c>
       <c r="W24">
-        <f t="shared" si="28"/>
-        <v>5.48847420417124</v>
+        <f t="shared" si="4"/>
+        <v>5.6561085972850673</v>
       </c>
       <c r="X24">
-        <f t="shared" si="28"/>
-        <v>2.1953896816684959</v>
+        <f t="shared" si="4"/>
+        <v>2.2624434389140271</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="28"/>
-        <v>1.2074643249176729</v>
+        <f>100/$Z$23*Y23</f>
+        <v>1.244343891402715</v>
       </c>
       <c r="Z24">
         <f>SUM(B24:Y24)</f>
-        <v>99.999999999999972</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/residential_model/_EXCELFILES/SANSOM_residential_gas_hourly_shape.xlsx
+++ b/data/residential_model/_EXCELFILES/SANSOM_residential_gas_hourly_shape.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -119,97 +119,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>original!$B$9:$Y$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -298,87 +209,87 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>original!$B$18:$Y$18</c:f>
+              <c:f>original!$B$11:$Y$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.41580041580041577</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41580041580041577</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41580041580041577</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41580041580041577</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41580041580041577</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2474012474012472</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0790020790020787</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1975051975051967</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3555093555093549</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1975051975051967</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.118503118503118</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3264033264033261</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1580041580041573</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3264033264033261</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3264033264033261</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.365904365904365</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.3160083160083147</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.979209979209978</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7713097713097703</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6923076923076916</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.4449064449064437</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0291060291060283</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9501039501039492</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0395010395010393</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,87 +298,87 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>original!$B$24:$Y$24</c:f>
+              <c:f>original!$B$23:$Y$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.56561085972850678</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56561085972850678</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56561085972850678</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56561085972850678</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0361990950226243</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3755656108597285</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.751131221719457</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7873303167420813</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4298642533936645</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3936651583710407</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2036199095022617</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6561085972850673</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2986425339366514</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5248868778280542</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.751131221719457</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3167420814479636</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.864253393665158</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.4660633484162888</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.6923076923076916</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.3529411764705879</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6742081447963804</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.6561085972850673</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2624434389140271</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.244343891402715</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,11 +395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95673344"/>
-        <c:axId val="95694208"/>
+        <c:axId val="84017536"/>
+        <c:axId val="84019072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95673344"/>
+        <c:axId val="84017536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95694208"/>
+        <c:crossAx val="84019072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -505,7 +416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95694208"/>
+        <c:axId val="84019072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,13 +427,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95673344"/>
+        <c:crossAx val="84017536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1077,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:Y24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
